--- a/biology/Zoologie/Coryphaeschna_ingens/Coryphaeschna_ingens.xlsx
+++ b/biology/Zoologie/Coryphaeschna_ingens/Coryphaeschna_ingens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coryphaeschna ingens fait partie de la famille des Aeshnidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coryphaeschna ingens fait partie de la famille des Aeshnidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette libellule néotropicale est relativement large et son abdomen mesure entre 86-90 mm de long. Le thorax du mâle est vert avec une bande brune. Son abdomen est noir avec de légers motifs verts sur chaque segment. Les yeux du mâle sont verts tandis que chez la femelle mature, ils seront bleus. La femelle a une coloration identique au mâle[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette libellule néotropicale est relativement large et son abdomen mesure entre 86-90 mm de long. Le thorax du mâle est vert avec une bande brune. Son abdomen est noir avec de légers motifs verts sur chaque segment. Les yeux du mâle sont verts tandis que chez la femelle mature, ils seront bleus. La femelle a une coloration identique au mâle.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coryphaeschna ingens vit dans le sud-est des États-Unis, au Mexique, aux Bahamas et à Cuba[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coryphaeschna ingens vit dans le sud-est des États-Unis, au Mexique, aux Bahamas et à Cuba,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se retrouve dans les étangs et lacs forestiers[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se retrouve dans les étangs et lacs forestiers.
 </t>
         </is>
       </c>
